--- a/code/multiecho-pilot_Demographics.xlsx
+++ b/code/multiecho-pilot_Demographics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/multiecho-pilot/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5D7FC421-8DDC-6F4E-9363-5A2F4501CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{35BA0601-3A71-F84F-94D7-052997AF8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="24960" windowHeight="21100" xr2:uid="{6EB431B5-1E0A-6548-980C-87D5B6ECBFAD}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="55">
   <si>
     <t>OpenNeuro</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>we didnt run the last three runs. Participant showed up 25 minutes late.</t>
+  </si>
+  <si>
+    <t>spSubs</t>
   </si>
 </sst>
 </file>
@@ -1069,18 +1072,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F77BA5-530C-0D4D-A37E-59D54ACC4944}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1091,34 +1094,37 @@
         <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10006</v>
       </c>
@@ -1129,34 +1135,37 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>10006</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>20.96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10015</v>
       </c>
@@ -1167,34 +1176,37 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>10015</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>20.14</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10017</v>
       </c>
@@ -1205,31 +1217,34 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>10017</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>19.77</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10024</v>
       </c>
@@ -1240,31 +1255,34 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>10024</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
         <v>19.54</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10028</v>
       </c>
@@ -1275,34 +1293,37 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>10028</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>20.85</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10035</v>
       </c>
@@ -1313,31 +1334,34 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>10035</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>21.17</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10041</v>
       </c>
@@ -1348,31 +1372,34 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10041</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
         <v>22.05</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10043</v>
       </c>
@@ -1383,31 +1410,34 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>10043</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>21.17</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10046</v>
       </c>
@@ -1418,34 +1448,37 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>10046</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>19.95</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
         <v>64</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10054</v>
       </c>
@@ -1456,31 +1489,34 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>10054</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
         <v>18.79</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10059</v>
       </c>
@@ -1491,31 +1527,34 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>10059</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
         <v>23.63</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10069</v>
       </c>
@@ -1526,31 +1565,34 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>10069</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
         <v>26.69</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10074</v>
       </c>
@@ -1561,31 +1603,34 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>10074</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
         <v>36.21</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
       <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10078</v>
       </c>
@@ -1596,31 +1641,34 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>10078</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
         <v>43.4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10080</v>
       </c>
@@ -1631,31 +1679,34 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>10080</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
         <v>45.21</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
       <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10085</v>
       </c>
@@ -1666,31 +1717,34 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>10085</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
         <v>52.34</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
       <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10094</v>
       </c>
@@ -1701,31 +1755,34 @@
         <v>1</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>10094</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
         <v>53.58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10108</v>
       </c>
@@ -1736,31 +1793,34 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>10108</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
         <v>27.1</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
       <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
       <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10125</v>
       </c>
@@ -1771,31 +1831,34 @@
         <v>1</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>10125</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
         <v>26.71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10130</v>
       </c>
@@ -1806,31 +1869,34 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>10130</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
         <v>20.12</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
       <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21">
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10136</v>
       </c>
@@ -1841,31 +1907,34 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>10136</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
         <v>21.66</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10137</v>
       </c>
@@ -1876,31 +1945,34 @@
         <v>1</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>10137</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>21.16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10142</v>
       </c>
@@ -1911,31 +1983,34 @@
         <v>1</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>10142</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
         <v>25.28</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10150</v>
       </c>
@@ -1946,31 +2021,34 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>10150</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
         <v>25.56</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10154</v>
       </c>
@@ -1981,31 +2059,34 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>10154</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <v>21.36</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10166</v>
       </c>
@@ -2016,31 +2097,34 @@
         <v>1</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>10166</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
         <v>24.79</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10185</v>
       </c>
@@ -2051,31 +2135,34 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>10185</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10186</v>
       </c>
@@ -2086,31 +2173,34 @@
         <v>1</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>10186</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>28.69</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10188</v>
       </c>
@@ -2121,31 +2211,34 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>10188</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
         <v>22.61</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>9</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10198</v>
       </c>
@@ -2156,34 +2249,37 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>10198</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
         <v>19.55</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
         <v>16</v>
       </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10203</v>
       </c>
@@ -2194,31 +2290,34 @@
         <v>1</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>10203</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32">
         <v>21.78</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
       <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10221</v>
       </c>
@@ -2229,31 +2328,34 @@
         <v>1</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>10221</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
         <v>19.899999999999999</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
       <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
         <v>11</v>
       </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
       <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10223</v>
       </c>
@@ -2264,31 +2366,34 @@
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>10223</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
         <v>21</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>19</v>
       </c>
-      <c r="K34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10234</v>
       </c>
@@ -2299,31 +2404,34 @@
         <v>1</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>10234</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
         <v>19.149999999999999</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10296</v>
       </c>
@@ -2334,31 +2442,34 @@
         <v>1</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>10296</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
         <v>22.88</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
         <v>18</v>
       </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10303</v>
       </c>
@@ -2369,34 +2480,37 @@
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>10303</v>
       </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37">
         <v>20.7</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>9</v>
       </c>
-      <c r="H37" t="s">
-        <v>10</v>
-      </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10318</v>
       </c>
@@ -2407,31 +2521,34 @@
         <v>1</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>10318</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
         <v>22.4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10319</v>
       </c>
@@ -2442,31 +2559,34 @@
         <v>1</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>10319</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
         <v>21</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
         <v>21</v>
       </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10320</v>
       </c>
@@ -2477,31 +2597,34 @@
         <v>1</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>10320</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
         <v>21.36</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10321</v>
       </c>
@@ -2512,31 +2635,34 @@
         <v>1</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>10321</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
         <v>18.329999999999998</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10363</v>
       </c>
@@ -2547,31 +2673,34 @@
         <v>1</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>10363</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
         <v>30.05</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10382</v>
       </c>
@@ -2582,31 +2711,34 @@
         <v>1</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>10382</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
         <v>32</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10391</v>
       </c>
@@ -2617,31 +2749,34 @@
         <v>1</v>
       </c>
       <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>10391</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
         <v>44.26</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
       </c>
-      <c r="K44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10416</v>
       </c>
@@ -2652,31 +2787,34 @@
         <v>1</v>
       </c>
       <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>10416</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45">
         <v>46.65</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>9</v>
       </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
       <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
         <v>18</v>
       </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10422</v>
       </c>
@@ -2687,31 +2825,34 @@
         <v>1</v>
       </c>
       <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>10422</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
         <v>26.75</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>9</v>
       </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
       <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
         <v>16</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>22</v>
       </c>
-      <c r="K46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10438</v>
       </c>
@@ -2722,31 +2863,34 @@
         <v>1</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>10438</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47">
         <v>53.03</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>9</v>
       </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
       <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
         <v>18</v>
       </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2756,32 +2900,35 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>23</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
         <v>35.33</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>9</v>
       </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2791,32 +2938,35 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49">
         <v>56.65</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2826,32 +2976,35 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>25</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
         <v>69.84</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
         <v>18</v>
       </c>
-      <c r="J50" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -2861,32 +3014,35 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>26</v>
       </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51">
         <v>23.03</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2896,32 +3052,35 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>28</v>
       </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52">
         <v>29.72</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
         <v>18</v>
       </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -2931,32 +3090,35 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53">
         <v>31.8</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
       <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
         <v>30</v>
       </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
       <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2966,32 +3128,35 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>31</v>
       </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54">
         <v>69.81</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10652</v>
       </c>
@@ -3001,20 +3166,20 @@
       <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>32</v>
       </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55">
         <v>70</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
@@ -3022,14 +3187,17 @@
       <c r="J55" t="s">
         <v>11</v>
       </c>
-      <c r="K55">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="K55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3039,32 +3207,35 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>33</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56">
         <v>62.56</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
         <v>18</v>
       </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3074,32 +3245,35 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57">
         <v>56.16</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
         <v>35</v>
       </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3109,32 +3283,35 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>36</v>
       </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58">
         <v>58.57</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10716</v>
       </c>
@@ -3144,20 +3321,20 @@
       <c r="C59" s="2">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
         <v>37</v>
       </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59">
         <v>69</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
@@ -3165,14 +3342,17 @@
       <c r="J59" t="s">
         <v>11</v>
       </c>
-      <c r="K59">
-        <v>20</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="K59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -3182,32 +3362,35 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60">
         <v>21.91</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>9</v>
       </c>
-      <c r="H60" t="s">
-        <v>10</v>
-      </c>
       <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
         <v>35</v>
       </c>
-      <c r="J60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10738</v>
       </c>
@@ -3217,20 +3400,20 @@
       <c r="C61" s="2">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61">
         <v>52</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
@@ -3238,14 +3421,17 @@
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="K61">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="K61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3255,32 +3441,35 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>40</v>
       </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62">
         <v>37.18</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
       <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
         <v>30</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
       </c>
-      <c r="K62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3290,32 +3479,35 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>41</v>
       </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
         <v>38.5</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>9</v>
       </c>
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -3325,32 +3517,35 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>42</v>
       </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64">
         <v>21.74</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
         <v>16</v>
       </c>
-      <c r="J64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>12042</v>
       </c>
@@ -3361,27 +3556,30 @@
         <v>1</v>
       </c>
       <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>12042</v>
       </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65">
         <v>20.260000000000002</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
       <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>16</v>
       </c>
-      <c r="J65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65">
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65">
         <v>20</v>
       </c>
     </row>

--- a/code/multiecho-pilot_Demographics.xlsx
+++ b/code/multiecho-pilot_Demographics.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/multiecho-pilot/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{35BA0601-3A71-F84F-94D7-052997AF8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB9D74-9675-3746-B42D-7DC864BD9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="24960" windowHeight="21100" xr2:uid="{6EB431B5-1E0A-6548-980C-87D5B6ECBFAD}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{6EB431B5-1E0A-6548-980C-87D5B6ECBFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="multiecho-pilot_Demographics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="55">
   <si>
     <t>OpenNeuro</t>
   </si>
@@ -340,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -687,10 +706,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1072,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F77BA5-530C-0D4D-A37E-59D54ACC4944}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,9 +1748,6 @@
       <c r="G17">
         <v>52.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
@@ -1766,9 +1783,6 @@
       <c r="G18">
         <v>53.58</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
@@ -2891,270 +2905,228 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48">
-        <v>35.33</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48">
-        <v>20</v>
-      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49">
-        <v>56.65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49">
-        <v>20</v>
-      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50">
-        <v>69.84</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K50" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50">
-        <v>20</v>
-      </c>
+      <c r="K50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51">
-        <v>23.03</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51">
-        <v>20</v>
-      </c>
+      <c r="F51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52">
-        <v>29.72</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K52" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52">
-        <v>20</v>
-      </c>
+      <c r="K52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53">
-        <v>31.8</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="F53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53">
-        <v>20</v>
-      </c>
+      <c r="J53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54">
-        <v>69.81</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54">
-        <v>20</v>
-      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -3198,118 +3170,100 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56">
-        <v>62.56</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="F56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56">
-        <v>20</v>
-      </c>
+      <c r="K56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>56.16</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57">
-        <v>20</v>
-      </c>
+      <c r="K57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58">
-        <v>58.57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58">
-        <v>20</v>
-      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -3333,9 +3287,6 @@
       <c r="G59">
         <v>69</v>
       </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
       <c r="I59" t="s">
         <v>11</v>
       </c>
@@ -3353,42 +3304,36 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60">
-        <v>21.91</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K60" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60">
-        <v>20</v>
-      </c>
+      <c r="K60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -3412,9 +3357,6 @@
       <c r="G61">
         <v>52</v>
       </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
       <c r="I61" t="s">
         <v>11</v>
       </c>
@@ -3432,118 +3374,100 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62">
-        <v>37.18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L62">
-        <v>20</v>
-      </c>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63">
-        <v>38.5</v>
-      </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63">
-        <v>20</v>
-      </c>
+      <c r="F63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64">
-        <v>21.74</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="F64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K64" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64">
-        <v>20</v>
-      </c>
+      <c r="K64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -3581,6 +3505,26 @@
       </c>
       <c r="L65">
         <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f>COUNTIF(H2:H65, "Male")</f>
+        <v>21</v>
+      </c>
+      <c r="L67">
+        <f>COUNTIF(L2:L65, 20)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f>COUNTIF(H2:H65, "Female")</f>
+        <v>25</v>
+      </c>
+      <c r="L68">
+        <f>COUNTIF(L2:L65, 64)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
